--- a/PccuClub/Template/霸凌事件管理_template.xlsx
+++ b/PccuClub/Template/霸凌事件管理_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p10316871\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pccu\SourceCode\SRC2\PccuClub\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBBDB90-948E-433F-8545-42D6FCA3F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,40 +22,48 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>校安事件編號</t>
-  </si>
-  <si>
-    <t>霸凌號</t>
-  </si>
-  <si>
-    <t>發生時間</t>
-  </si>
-  <si>
-    <t>知悉時間</t>
-  </si>
-  <si>
-    <t>霸凌事件主類別</t>
-  </si>
-  <si>
-    <t>霸凌事件次類別</t>
-  </si>
-  <si>
-    <t>受理狀態</t>
-  </si>
-  <si>
     <t>受理時間</t>
   </si>
   <si>
-    <t>是否結案</t>
-  </si>
-  <si>
     <t>結案時間</t>
+  </si>
+  <si>
+    <t>校安事件編號(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸凌號(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>發生時間(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知悉時間(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸凌事件主類別(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸凌事件次類別(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受理狀態(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否結案(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,48 +410,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="27.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="20" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
